--- a/sample_data/Healthify Excel Sheet.xlsx
+++ b/sample_data/Healthify Excel Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42488BCA-C4CC-4EA7-9CE8-F7CC209267D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650D7C81-E072-4E35-ADC3-03D5A827E98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,19 +896,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9">
-        <v>44046</v>
+        <v>44064</v>
       </c>
       <c r="E10" s="5">
-        <v>44039.805555555555</v>
+        <v>44055.555555555555</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>60</v>
@@ -916,19 +916,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9">
-        <v>44064</v>
+        <v>44046</v>
       </c>
       <c r="E11" s="5">
-        <v>44055.555555555555</v>
+        <v>44039.805555555555</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>60</v>
@@ -944,8 +944,8 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{A4745AF6-2031-42C5-B4C1-7AB8AE26AB17}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{696139E7-8031-450D-911D-D87C32753359}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{B260E6E2-A4BB-47CA-8F3F-9CF16ACB51B9}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{A9D5A29C-34E3-4C4C-938D-3C987B889965}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{52B332B2-80F0-46F2-B109-E266FE72EC8A}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{A9D5A29C-34E3-4C4C-938D-3C987B889965}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{52B332B2-80F0-46F2-B109-E266FE72EC8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
@@ -1547,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF4A9E4-46E6-4127-A54A-C6E3D069C421}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/sample_data/Healthify Excel Sheet.xlsx
+++ b/sample_data/Healthify Excel Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650D7C81-E072-4E35-ADC3-03D5A827E98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA7F46-32DB-4E56-8DA5-749151AEA89F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>danieldanny77@gmail.com</t>
   </si>
   <si>
-    <t>63tedh3yw</t>
-  </si>
-  <si>
     <t>Natasha99</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>600000(Steps)</t>
+  </si>
+  <si>
+    <t>ygeb73829</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -751,7 +751,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -771,12 +771,12 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -791,7 +791,7 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -811,7 +811,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -831,7 +831,7 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -851,7 +851,7 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -891,18 +891,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="9">
         <v>44064</v>
@@ -911,7 +911,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D11" s="9">
         <v>44046</v>
@@ -931,7 +931,7 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -977,16 +977,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>14</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>41</v>
@@ -1403,13 +1403,13 @@
         <v>44066</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1417,13 +1417,13 @@
         <v>44066</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1434,10 +1434,10 @@
         <v>44064</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1448,7 +1448,7 @@
         <v>44044</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3">
         <v>44058</v>
@@ -1462,10 +1462,10 @@
         <v>44065</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1473,13 +1473,13 @@
         <v>44067</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1490,7 +1490,7 @@
         <v>44044</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3">
         <v>44063</v>
@@ -1504,10 +1504,10 @@
         <v>44048</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1518,10 +1518,10 @@
         <v>44063</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1529,13 +1529,13 @@
         <v>44063</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3">
         <v>44064</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1571,65 +1571,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2">
         <v>300000</v>
@@ -1637,35 +1637,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>

--- a/sample_data/Healthify Excel Sheet.xlsx
+++ b/sample_data/Healthify Excel Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA7F46-32DB-4E56-8DA5-749151AEA89F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84DE715-3FEC-4533-9E22-1CA07B27F73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>Username</t>
   </si>
@@ -61,18 +61,12 @@
     <t>johnsmith99@gmail.com</t>
   </si>
   <si>
-    <t>QWERtyuiop</t>
-  </si>
-  <si>
     <t>amyjackson</t>
   </si>
   <si>
     <t>amyjackson@gmail.com</t>
   </si>
   <si>
-    <t>ASDFGhjkl</t>
-  </si>
-  <si>
     <t>Measurement Date</t>
   </si>
   <si>
@@ -124,54 +118,36 @@
     <t>jadewilliam@gmail.com</t>
   </si>
   <si>
-    <t>najhbHBC</t>
-  </si>
-  <si>
     <t>sophiacathie</t>
   </si>
   <si>
     <t>cathiecat@gmail.com</t>
   </si>
   <si>
-    <t>twu782tf</t>
-  </si>
-  <si>
     <t>jacobmason</t>
   </si>
   <si>
     <t>mysonjacob@gmail.com</t>
   </si>
   <si>
-    <t>647geywte</t>
-  </si>
-  <si>
     <t>emmawilliam</t>
   </si>
   <si>
     <t>willy9898@gmail.com</t>
   </si>
   <si>
-    <t>7e736try</t>
-  </si>
-  <si>
     <t>Oliviajaden</t>
   </si>
   <si>
     <t>jadejady@gmail.com</t>
   </si>
   <si>
-    <t>8638etey</t>
-  </si>
-  <si>
     <t>Emilysmith</t>
   </si>
   <si>
     <t>smartemily@gmail.com</t>
   </si>
   <si>
-    <t>6gey7yey</t>
-  </si>
-  <si>
     <t>danieldanny</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>naughtynatasha@gmail.com</t>
   </si>
   <si>
-    <t>672gbsgdj</t>
-  </si>
-  <si>
     <t>Hydration(liters)</t>
   </si>
   <si>
@@ -325,7 +298,7 @@
     <t>600000(Steps)</t>
   </si>
   <si>
-    <t>ygeb73829</t>
+    <t>********</t>
   </si>
 </sst>
 </file>
@@ -731,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -742,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D2" s="9">
         <v>43902</v>
@@ -751,18 +724,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D3" s="3">
         <v>43920</v>
@@ -771,18 +744,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D4" s="9">
         <v>43938</v>
@@ -791,18 +764,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3">
         <v>43956</v>
@@ -811,18 +784,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D6" s="9">
         <v>43974</v>
@@ -831,18 +804,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D7" s="3">
         <v>43992</v>
@@ -851,18 +824,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D8" s="9">
         <v>44010</v>
@@ -871,18 +844,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3">
         <v>44028</v>
@@ -891,18 +864,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9">
         <v>44064</v>
@@ -911,18 +884,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D11" s="9">
         <v>44046</v>
@@ -931,7 +904,7 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -971,25 +944,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1253,24 +1226,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>43975</v>
@@ -1281,10 +1254,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
         <v>43975</v>
@@ -1295,10 +1268,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>43975</v>
@@ -1309,10 +1282,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3">
         <v>43975</v>
@@ -1323,10 +1296,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>43975</v>
@@ -1337,10 +1310,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3">
         <v>43975</v>
@@ -1351,10 +1324,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>43975</v>
@@ -1386,16 +1359,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1403,13 +1376,13 @@
         <v>44066</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1417,13 +1390,13 @@
         <v>44066</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1434,10 +1407,10 @@
         <v>44064</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1448,7 +1421,7 @@
         <v>44044</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3">
         <v>44058</v>
@@ -1462,10 +1435,10 @@
         <v>44065</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1473,13 +1446,13 @@
         <v>44067</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1490,7 +1463,7 @@
         <v>44044</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
         <v>44063</v>
@@ -1504,10 +1477,10 @@
         <v>44048</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1518,10 +1491,10 @@
         <v>44063</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1529,13 +1502,13 @@
         <v>44063</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3">
         <v>44064</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1560,76 +1533,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2">
         <v>300000</v>
@@ -1637,35 +1610,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1691,24 +1664,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>44044</v>
@@ -1719,10 +1692,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
         <v>44044</v>
@@ -1733,10 +1706,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>44044</v>
@@ -1747,10 +1720,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" s="10">
         <v>44044</v>

--- a/sample_data/Healthify Excel Sheet.xlsx
+++ b/sample_data/Healthify Excel Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84DE715-3FEC-4533-9E22-1CA07B27F73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1EB57D-A1A4-4796-B243-C6FE8D2D5488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
